--- a/10.0 CRONOGRAMA/CRONOGRAMA- MAMARA.xlsx
+++ b/10.0 CRONOGRAMA/CRONOGRAMA- MAMARA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JR2020\IOARR 2020\IOARR 2020 -JUNIO CONCLUIDOS\1. IOARR IES RAFAEL GRAU - MAMARA FINAL\10.0 CRONOGRAMA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\REPOSITORIO ORFEI\IOARR0001\10.0 CRONOGRAMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA75056-D5AD-4AAE-B256-97C0B5055A9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94841D39-974F-46AB-A5E7-D73C29BF88E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,31 +98,6 @@
     <t xml:space="preserve">COBERTURA METALICA </t>
   </si>
   <si>
-    <r>
-      <t>Cronograma de inversión IOARR: “</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>OPTIMIZACION MEDIANTE COBERTURA DE LA LOSA DEPORTIVA MULTIUSO DE LA I.E.INTEGRADO ANDRES AVELINO CACERES (IEP N° 54411) – SANTA ROSA, DISTRITO SANTA ROSA, PROVINCIA GRAU-REGION APURIMAC</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>”</t>
-    </r>
-  </si>
-  <si>
     <t>S1</t>
   </si>
   <si>
@@ -179,6 +154,9 @@
       </rPr>
       <t>”</t>
     </r>
+  </si>
+  <si>
+    <t>Cronograma de inversión IOARR: “OPTIMIZACION MEDIANTE COBERTURA DE LA LOSA DEPORTIVA MULTIUSO DE LA INSTITUCION EDUCATIVA SECUNDARIA "RAFAEL GRAU MAMARA" DISTRITO MAMARA, PROVINCIA GRAU, DEPARATAMENTO DE APURIMAC”</t>
   </si>
 </sst>
 </file>
@@ -516,6 +494,66 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -554,66 +592,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1565,8 +1543,8 @@
   </sheetPr>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1581,280 +1559,282 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="A1" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="A2" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34">
+      <c r="B4" s="19"/>
+      <c r="C4" s="20">
         <f>F4</f>
         <v>4626.76</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34">
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20">
         <v>4626.76</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34">
+      <c r="B6" s="19"/>
+      <c r="C6" s="20">
         <f>F6</f>
         <v>126695.41</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34">
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20">
         <v>126695.41</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="34">
+      <c r="B7" s="19"/>
+      <c r="C7" s="20">
         <f>F7/2</f>
         <v>60249.105000000003</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="20">
         <f>F7/2</f>
         <v>60249.105000000003</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34">
+      <c r="E7" s="20"/>
+      <c r="F7" s="20">
         <v>120498.21</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34">
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20">
         <f>F8</f>
         <v>8300.7099999999991</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34">
+      <c r="E8" s="20"/>
+      <c r="F8" s="20">
         <v>8300.7099999999991</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34">
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20">
         <f>F9</f>
         <v>11211.5</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34">
+      <c r="E9" s="20"/>
+      <c r="F9" s="20">
         <v>11211.5</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="34">
+      <c r="B10" s="19"/>
+      <c r="C10" s="20">
         <f>F10</f>
         <v>3500</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34">
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20">
         <v>3500</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="38">
+      <c r="B11" s="22"/>
+      <c r="C11" s="23">
         <f>SUM(C4:C10)</f>
         <v>195071.27500000002</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="23">
         <f>SUM(D4:D10)</f>
         <v>79761.315000000002</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="40">
+      <c r="E11" s="24"/>
+      <c r="F11" s="25">
         <f>+F6+F7+F8+F9+F10+F4</f>
         <v>274832.58999999997</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42">
-        <v>9668.3549999999996</v>
-      </c>
-      <c r="D12" s="42">
-        <v>9668.3549999999996</v>
-      </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="44">
+      <c r="B12" s="26"/>
+      <c r="C12" s="27">
+        <f>+F12/2</f>
+        <v>31508.89</v>
+      </c>
+      <c r="D12" s="27">
+        <f>+F12/2</f>
+        <v>31508.89</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29">
         <v>63017.78</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="42">
+      <c r="B13" s="31"/>
+      <c r="C13" s="27">
         <f>F13/2</f>
         <v>12480.75</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="27">
         <f>F13/2</f>
         <v>12480.75</v>
       </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="44">
+      <c r="E13" s="27"/>
+      <c r="F13" s="29">
         <v>24961.5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="42">
+      <c r="B14" s="31"/>
+      <c r="C14" s="27">
         <f>F14/2</f>
         <v>7732.03</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="27">
         <f>F14/2</f>
         <v>7732.03</v>
       </c>
-      <c r="E14" s="42"/>
-      <c r="F14" s="44">
+      <c r="E14" s="27"/>
+      <c r="F14" s="29">
         <v>15464.06</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="34">
+      <c r="B15" s="20">
         <f>F15</f>
         <v>10000</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="44">
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="29">
         <v>10000</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20">
         <f>F16</f>
         <v>17290.75</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F16" s="29">
         <v>17290.75</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="43">
+      <c r="B17" s="28">
         <f>SUM(B11:B16)</f>
         <v>10000</v>
       </c>
-      <c r="C17" s="43">
+      <c r="C17" s="28">
         <f>SUM(C11:C16)</f>
-        <v>224952.41000000003</v>
-      </c>
-      <c r="D17" s="43">
+        <v>246792.94500000004</v>
+      </c>
+      <c r="D17" s="28">
         <f>SUM(D11:D16)</f>
-        <v>109642.45</v>
-      </c>
-      <c r="E17" s="43">
+        <v>131482.98500000002</v>
+      </c>
+      <c r="E17" s="28">
         <f>SUM(E11:E16)</f>
         <v>17290.75</v>
       </c>
-      <c r="F17" s="47"/>
+      <c r="F17" s="32"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49">
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="33">
         <f>SUM(F11:F16)+0.01</f>
         <v>405566.69</v>
       </c>
@@ -1879,7 +1859,7 @@
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1891,130 +1871,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
+      <c r="A1" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
     </row>
     <row r="2" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
+      <c r="A2" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
     </row>
     <row r="3" spans="1:18" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19" t="s">
+      <c r="A3" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19" t="s">
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
       <c r="R3" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="4" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="E4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="F4" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="I4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="J4" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="M4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="N4" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="Q4" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>25</v>
       </c>
       <c r="R4" s="13"/>
     </row>
@@ -2043,26 +2023,26 @@
       </c>
     </row>
     <row r="6" spans="1:18" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
     </row>
     <row r="7" spans="1:18" s="4" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -2330,7 +2310,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" s="4" customFormat="1" ht="3.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="48" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="9"/>
@@ -2352,53 +2332,53 @@
       <c r="R18" s="12"/>
     </row>
     <row r="19" spans="1:18" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="22">
+      <c r="A19" s="49"/>
+      <c r="B19" s="42">
         <v>10000</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="25">
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="45">
         <v>189045.13</v>
       </c>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="25">
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="45">
         <v>88725.28</v>
       </c>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="25">
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="45">
         <v>17290.75</v>
       </c>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="27"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="47"/>
       <c r="R19" s="16"/>
     </row>
     <row r="20" spans="1:18" s="4" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
       <c r="R20" s="11">
         <f>SUM(R12:R17)+0.01</f>
         <v>405566.69</v>

--- a/10.0 CRONOGRAMA/CRONOGRAMA- MAMARA.xlsx
+++ b/10.0 CRONOGRAMA/CRONOGRAMA- MAMARA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\REPOSITORIO ORFEI\IOARR0001\10.0 CRONOGRAMA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI\IOARR0001-MAMARA\10.0 CRONOGRAMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94841D39-974F-46AB-A5E7-D73C29BF88E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16890"/>
   </bookViews>
   <sheets>
     <sheet name="FINANCIERO" sheetId="1" r:id="rId1"/>
@@ -162,10 +161,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_ &quot;S/&quot;\ * #,##0.00_ ;_ &quot;S/&quot;\ * \-#,##0.00_ ;_ &quot;S/&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_-&quot;S/.&quot;* #,##0.00_-;\-&quot;S/.&quot;* #,##0.00_-;_-&quot;S/.&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;S/&quot;\ * #,##0.00_ ;_ &quot;S/&quot;\ * \-#,##0.00_ ;_ &quot;S/&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_-&quot;S/.&quot;* #,##0.00_-;\-&quot;S/.&quot;* #,##0.00_-;_-&quot;S/.&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -451,10 +450,10 @@
   <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -464,7 +463,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -473,10 +472,10 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="9" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -503,7 +502,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -512,25 +511,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -542,7 +541,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -569,22 +568,22 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1537,7 +1536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
@@ -1547,18 +1546,18 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="1"/>
-    <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="21.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="13.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
         <v>32</v>
       </c>
@@ -1568,7 +1567,7 @@
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>29</v>
       </c>
@@ -1578,7 +1577,7 @@
       <c r="E2" s="34"/>
       <c r="F2" s="34"/>
     </row>
-    <row r="3" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
@@ -1598,7 +1597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
@@ -1613,7 +1612,7 @@
         <v>4626.76</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
         <v>19</v>
       </c>
@@ -1623,7 +1622,7 @@
       <c r="E5" s="36"/>
       <c r="F5" s="36"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
@@ -1638,7 +1637,7 @@
         <v>126695.41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>13</v>
       </c>
@@ -1656,7 +1655,7 @@
         <v>120498.21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>15</v>
       </c>
@@ -1671,7 +1670,7 @@
         <v>8300.7099999999991</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>16</v>
       </c>
@@ -1686,7 +1685,7 @@
         <v>11211.5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>17</v>
       </c>
@@ -1701,7 +1700,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
         <v>7</v>
       </c>
@@ -1720,7 +1719,7 @@
         <v>274832.58999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
         <v>8</v>
       </c>
@@ -1738,7 +1737,7 @@
         <v>63017.78</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="30" t="s">
         <v>9</v>
       </c>
@@ -1756,7 +1755,7 @@
         <v>24961.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="30" t="s">
         <v>18</v>
       </c>
@@ -1774,7 +1773,7 @@
         <v>15464.06</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
         <v>10</v>
       </c>
@@ -1789,7 +1788,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
         <v>11</v>
       </c>
@@ -1804,7 +1803,7 @@
         <v>17290.75</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
         <v>7</v>
       </c>
@@ -1826,7 +1825,7 @@
       </c>
       <c r="F17" s="32"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="35" t="s">
         <v>12</v>
       </c>
@@ -1852,7 +1851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -1862,15 +1861,15 @@
       <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="1" customWidth="1"/>
-    <col min="2" max="17" width="3.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="21.28515625" style="1" customWidth="1"/>
+    <col min="2" max="17" width="3.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="46.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
         <v>31</v>
       </c>
@@ -1892,7 +1891,7 @@
       <c r="Q1" s="34"/>
       <c r="R1" s="34"/>
     </row>
-    <row r="2" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>30</v>
       </c>
@@ -1914,7 +1913,7 @@
       <c r="Q2" s="40"/>
       <c r="R2" s="40"/>
     </row>
-    <row r="3" spans="1:18" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
         <v>28</v>
       </c>
@@ -1946,7 +1945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="4" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="4" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="41"/>
       <c r="B4" s="13" t="s">
         <v>20</v>
@@ -1998,7 +1997,7 @@
       </c>
       <c r="R4" s="13"/>
     </row>
-    <row r="5" spans="1:18" s="4" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" s="4" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -2022,7 +2021,7 @@
         <v>4626.76</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
         <v>19</v>
       </c>
@@ -2044,7 +2043,7 @@
       <c r="Q6" s="37"/>
       <c r="R6" s="37"/>
     </row>
-    <row r="7" spans="1:18" s="4" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" s="4" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
@@ -2068,7 +2067,7 @@
         <v>126695.41</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="4" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" s="4" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -2092,7 +2091,7 @@
         <v>120498.21</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="4" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" s="4" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
@@ -2116,7 +2115,7 @@
         <v>8300.7099999999991</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="4" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" s="4" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
@@ -2140,7 +2139,7 @@
         <v>11211.5</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="4" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" s="4" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
@@ -2164,7 +2163,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>7</v>
       </c>
@@ -2189,7 +2188,7 @@
         <v>274832.58999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
@@ -2213,7 +2212,7 @@
         <v>63017.78</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>9</v>
       </c>
@@ -2237,7 +2236,7 @@
         <v>24961.5</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>18</v>
       </c>
@@ -2261,7 +2260,7 @@
         <v>15464.06</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
@@ -2285,7 +2284,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
@@ -2309,7 +2308,7 @@
         <v>17290.75</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="4" customFormat="1" ht="3.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" s="4" customFormat="1" ht="3.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="48" t="s">
         <v>7</v>
       </c>
@@ -2331,7 +2330,7 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="12"/>
     </row>
-    <row r="19" spans="1:18" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="49"/>
       <c r="B19" s="42">
         <v>10000</v>
@@ -2359,7 +2358,7 @@
       <c r="Q19" s="47"/>
       <c r="R19" s="16"/>
     </row>
-    <row r="20" spans="1:18" s="4" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" s="4" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="38" t="s">
         <v>12</v>
       </c>
@@ -2384,9 +2383,9 @@
         <v>405566.69</v>
       </c>
     </row>
-    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="A1:R1"/>
